--- a/docs/data/culture_Intechmer/fichier_donnees_culture.xlsx
+++ b/docs/data/culture_Intechmer/fichier_donnees_culture.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnam-my.sharepoint.com/personal/regis_gallon_lecnam_net/Documents/2019-2020/6-recherche/SMEL/REHAB/data/culture_Intechmer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{C562AF2D-9F9E-7046-85E7-808DACFF6412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0E58060-2204-0D4E-8BF6-68FF1086B38F}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{C562AF2D-9F9E-7046-85E7-808DACFF6412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAEC15BC-A222-2F46-B9DB-F465C6CD5825}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="460" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{40F70532-60CB-1140-A706-CA53A7F636C1}"/>
   </bookViews>
   <sheets>
     <sheet name="27052020" sheetId="2" r:id="rId1"/>
     <sheet name="10062020" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId3"/>
+    <sheet name="29062020" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
   <si>
     <t>Bac1</t>
   </si>
@@ -104,6 +105,9 @@
   </si>
   <si>
     <t>taille</t>
+  </si>
+  <si>
+    <t>]24;26cm]</t>
   </si>
 </sst>
 </file>
@@ -914,10 +918,407 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037FF8BB-7EEB-AF49-9711-797BAC05EA35}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667F3326-FBB9-6D42-9413-A8E7FE53E3C5}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/docs/data/culture_Intechmer/fichier_donnees_culture.xlsx
+++ b/docs/data/culture_Intechmer/fichier_donnees_culture.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnam-my.sharepoint.com/personal/regis_gallon_lecnam_net/Documents/2019-2020/6-recherche/SMEL/REHAB/data/culture_Intechmer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{C562AF2D-9F9E-7046-85E7-808DACFF6412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAEC15BC-A222-2F46-B9DB-F465C6CD5825}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{C562AF2D-9F9E-7046-85E7-808DACFF6412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56D4D297-C0E6-CE4C-97CD-5D10EA7463E7}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="460" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{40F70532-60CB-1140-A706-CA53A7F636C1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{40F70532-60CB-1140-A706-CA53A7F636C1}"/>
   </bookViews>
   <sheets>
     <sheet name="27052020" sheetId="2" r:id="rId1"/>
     <sheet name="10062020" sheetId="3" r:id="rId2"/>
     <sheet name="29062020" sheetId="4" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
+    <sheet name="24072020" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>Bac1</t>
   </si>
@@ -108,16 +108,44 @@
   </si>
   <si>
     <t>]24;26cm]</t>
+  </si>
+  <si>
+    <t>]26;28cm]</t>
+  </si>
+  <si>
+    <t>]28;30cm]</t>
+  </si>
+  <si>
+    <t>]30;32cm]</t>
+  </si>
+  <si>
+    <t>]32;34cm]</t>
+  </si>
+  <si>
+    <t>]34;36cm]</t>
+  </si>
+  <si>
+    <t>]36;38cm]</t>
+  </si>
+  <si>
+    <t>]38;40cm]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,12 +167,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037FF8BB-7EEB-AF49-9711-797BAC05EA35}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1316,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667F3326-FBB9-6D42-9413-A8E7FE53E3C5}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1328,98 +1460,555 @@
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>7</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>7</v>
+      </c>
+      <c r="H14" s="4">
+        <v>9</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4">
+        <v>7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>9</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7</v>
+      </c>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/data/culture_Intechmer/fichier_donnees_culture.xlsx
+++ b/docs/data/culture_Intechmer/fichier_donnees_culture.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cnam-my.sharepoint.com/personal/regis_gallon_lecnam_net/Documents/2019-2020/6-recherche/SMEL/REHAB/data/culture_Intechmer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{C562AF2D-9F9E-7046-85E7-808DACFF6412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56D4D297-C0E6-CE4C-97CD-5D10EA7463E7}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{C562AF2D-9F9E-7046-85E7-808DACFF6412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{659633FE-6D1E-4128-9003-41DC28660FD6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{40F70532-60CB-1140-A706-CA53A7F636C1}"/>
+    <workbookView xWindow="5625" yWindow="2835" windowWidth="18900" windowHeight="11055" activeTab="4" xr2:uid="{40F70532-60CB-1140-A706-CA53A7F636C1}"/>
   </bookViews>
   <sheets>
     <sheet name="27052020" sheetId="2" r:id="rId1"/>
     <sheet name="10062020" sheetId="3" r:id="rId2"/>
     <sheet name="29062020" sheetId="4" r:id="rId3"/>
     <sheet name="24072020" sheetId="1" r:id="rId4"/>
+    <sheet name="24082020" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="37">
   <si>
     <t>Bac1</t>
   </si>
@@ -129,6 +130,24 @@
   </si>
   <si>
     <t>]38;40cm]</t>
+  </si>
+  <si>
+    <t>]40;42cm]</t>
+  </si>
+  <si>
+    <t>]42;44cm]</t>
+  </si>
+  <si>
+    <t>]44;46cm]</t>
+  </si>
+  <si>
+    <t>]46;48cm]</t>
+  </si>
+  <si>
+    <t>]48;50cm]</t>
+  </si>
+  <si>
+    <t>]50;52cm]</t>
   </si>
 </sst>
 </file>
@@ -159,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -263,11 +282,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -277,6 +322,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,9 +643,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -629,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -658,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -690,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -722,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -748,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -756,42 +804,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -807,9 +855,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -841,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -870,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -902,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -934,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -966,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -992,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1009,37 +1057,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1055,9 +1103,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1089,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1134,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1195,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1288,7 +1336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1352,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1427,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1450,13 +1498,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667F3326-FBB9-6D42-9413-A8E7FE53E3C5}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1552,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1566,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1606,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1582,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1604,7 +1652,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1630,7 +1678,7 @@
       </c>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1692,7 +1740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1754,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1786,7 +1834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +1866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1850,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -1878,7 +1926,7 @@
       </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1906,7 +1954,7 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1934,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1960,7 +2008,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +2028,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1994,7 +2042,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>30</v>
       </c>
@@ -2013,4 +2061,595 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89C71FD-BA6A-45E4-9F5A-F527934C9840}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9">
+        <v>4</v>
+      </c>
+      <c r="G18" s="9">
+        <v>8</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9">
+        <v>6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9">
+        <v>8</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <v>4</v>
+      </c>
+      <c r="G20" s="9">
+        <v>2</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3</v>
+      </c>
+      <c r="G21" s="9">
+        <v>7</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9">
+        <v>6</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9">
+        <v>4</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>